--- a/image_metadata - add new.xlsx
+++ b/image_metadata - add new.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaype\Documents\GitHub\fun-finds\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kayp\GitHub\fun-finds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FBD9515-5E3B-4F54-921F-0310AF7DA5AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D4E1DE4-56A7-404E-940C-DA7BDB75A956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-990" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="149">
   <si>
     <t>title</t>
   </si>
@@ -472,9 +483,6 @@
   </si>
   <si>
     <t>0600</t>
-  </si>
-  <si>
-    <t>map; test</t>
   </si>
 </sst>
 </file>
@@ -795,23 +803,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="39" customWidth="1"/>
-    <col min="2" max="2" width="43.21875" customWidth="1"/>
-    <col min="3" max="3" width="37.6640625" customWidth="1"/>
-    <col min="4" max="4" width="32.33203125" customWidth="1"/>
-    <col min="5" max="6" width="14.5546875" customWidth="1"/>
-    <col min="7" max="7" width="16.21875" customWidth="1"/>
-    <col min="9" max="9" width="53.21875" customWidth="1"/>
-    <col min="10" max="10" width="40.33203125" customWidth="1"/>
+    <col min="2" max="2" width="43.1796875" customWidth="1"/>
+    <col min="3" max="3" width="37.6328125" customWidth="1"/>
+    <col min="4" max="4" width="32.36328125" customWidth="1"/>
+    <col min="5" max="6" width="14.54296875" customWidth="1"/>
+    <col min="7" max="7" width="16.1796875" customWidth="1"/>
+    <col min="9" max="9" width="53.1796875" customWidth="1"/>
+    <col min="10" max="10" width="40.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -840,7 +848,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -869,7 +877,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -893,7 +901,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -920,7 +928,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -947,7 +955,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -971,7 +979,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -998,7 +1006,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -1025,7 +1033,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -1052,7 +1060,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -1079,7 +1087,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -1106,7 +1114,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>45</v>
       </c>
@@ -1133,7 +1141,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>48</v>
       </c>
@@ -1160,7 +1168,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>51</v>
       </c>
@@ -1187,7 +1195,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>54</v>
       </c>
@@ -1214,7 +1222,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>55</v>
       </c>
@@ -1241,7 +1249,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>59</v>
       </c>
@@ -1268,7 +1276,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>62</v>
       </c>
@@ -1295,7 +1303,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>63</v>
       </c>
@@ -1306,7 +1314,7 @@
         <v>72</v>
       </c>
       <c r="D19" t="s">
-        <v>149</v>
+        <v>68</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="0"/>
@@ -1322,7 +1330,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>64</v>
       </c>
@@ -1349,7 +1357,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>66</v>
       </c>
@@ -1376,7 +1384,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>65</v>
       </c>
@@ -1403,7 +1411,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>67</v>
       </c>
@@ -1430,7 +1438,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>80</v>
       </c>
@@ -1457,7 +1465,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>81</v>
       </c>
@@ -1484,7 +1492,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>86</v>
       </c>
@@ -1511,7 +1519,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>88</v>
       </c>
@@ -1538,7 +1546,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>97</v>
       </c>
@@ -1565,7 +1573,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>96</v>
       </c>
@@ -1592,7 +1600,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -1601,15 +1609,15 @@
         <v>1.04.02</v>
       </c>
       <c r="G30" t="str">
-        <f t="shared" ref="G4:G67" si="1">MID(A30,SEARCH("_",A30,SEARCH("_",A30)+1)+1,SEARCH("_",A30,SEARCH("_",A30,SEARCH("_",A30)+1)+1)-SEARCH("_",A30,SEARCH("_",A30)+1)-1)</f>
+        <f t="shared" ref="G30:G67" si="1">MID(A30,SEARCH("_",A30,SEARCH("_",A30)+1)+1,SEARCH("_",A30,SEARCH("_",A30,SEARCH("_",A30)+1)+1)-SEARCH("_",A30,SEARCH("_",A30)+1)-1)</f>
         <v>0000</v>
       </c>
       <c r="H30" t="str">
-        <f t="shared" ref="H4:H67" si="2">MID(A30,SEARCH("_",A30,SEARCH("_",A30,SEARCH("_",A30)+1)+1)+1,LEN(A30)-SEARCH("_",A30,SEARCH("_",A30,SEARCH("_",A30)+1)+1)-4)</f>
-        <v>0000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" ref="H30:H67" si="2">MID(A30,SEARCH("_",A30,SEARCH("_",A30,SEARCH("_",A30)+1)+1)+1,LEN(A30)-SEARCH("_",A30,SEARCH("_",A30,SEARCH("_",A30)+1)+1)-4)</f>
+        <v>0000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -1626,7 +1634,7 @@
         <v>0000</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>28</v>
       </c>
@@ -1643,7 +1651,7 @@
         <v>0000</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>28</v>
       </c>
@@ -1660,7 +1668,7 @@
         <v>0000</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>28</v>
       </c>
@@ -1677,7 +1685,7 @@
         <v>0000</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>28</v>
       </c>
@@ -1694,7 +1702,7 @@
         <v>0000</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>28</v>
       </c>
@@ -1711,7 +1719,7 @@
         <v>0000</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>28</v>
       </c>
@@ -1728,7 +1736,7 @@
         <v>0000</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>28</v>
       </c>
@@ -1745,7 +1753,7 @@
         <v>0000</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>28</v>
       </c>
@@ -1762,7 +1770,7 @@
         <v>0000</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>28</v>
       </c>
@@ -1779,7 +1787,7 @@
         <v>0000</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>28</v>
       </c>
@@ -1796,7 +1804,7 @@
         <v>0000</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>28</v>
       </c>
@@ -1813,7 +1821,7 @@
         <v>0000</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>28</v>
       </c>
@@ -1830,7 +1838,7 @@
         <v>0000</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>28</v>
       </c>
@@ -1847,7 +1855,7 @@
         <v>0000</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>28</v>
       </c>
@@ -1864,7 +1872,7 @@
         <v>0000</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>28</v>
       </c>
@@ -1881,7 +1889,7 @@
         <v>0000</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>28</v>
       </c>
@@ -1898,7 +1906,7 @@
         <v>0000</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>28</v>
       </c>
@@ -1915,7 +1923,7 @@
         <v>0000</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>28</v>
       </c>
@@ -1932,7 +1940,7 @@
         <v>0000</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>28</v>
       </c>
@@ -1949,7 +1957,7 @@
         <v>0000</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>28</v>
       </c>
@@ -1966,7 +1974,7 @@
         <v>0000</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>28</v>
       </c>
@@ -1983,7 +1991,7 @@
         <v>0000</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>28</v>
       </c>
@@ -2000,7 +2008,7 @@
         <v>0000</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>28</v>
       </c>
@@ -2017,7 +2025,7 @@
         <v>0000</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>28</v>
       </c>
@@ -2034,7 +2042,7 @@
         <v>0000</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>28</v>
       </c>
@@ -2051,7 +2059,7 @@
         <v>0000</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>28</v>
       </c>
@@ -2068,7 +2076,7 @@
         <v>0000</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>28</v>
       </c>
@@ -2085,7 +2093,7 @@
         <v>0000</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>28</v>
       </c>
@@ -2102,7 +2110,7 @@
         <v>0000</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>28</v>
       </c>
@@ -2119,7 +2127,7 @@
         <v>0000</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>28</v>
       </c>
@@ -2136,7 +2144,7 @@
         <v>0000</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>28</v>
       </c>
@@ -2153,7 +2161,7 @@
         <v>0000</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>28</v>
       </c>
@@ -2170,7 +2178,7 @@
         <v>0000</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>28</v>
       </c>
@@ -2187,7 +2195,7 @@
         <v>0000</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>28</v>
       </c>
@@ -2204,7 +2212,7 @@
         <v>0000</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>28</v>
       </c>
@@ -2221,7 +2229,7 @@
         <v>0000</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>28</v>
       </c>
@@ -2238,7 +2246,7 @@
         <v>0000</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>28</v>
       </c>
@@ -2255,7 +2263,7 @@
         <v>0000</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>28</v>
       </c>
@@ -2272,7 +2280,7 @@
         <v>0000</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>28</v>
       </c>
@@ -2289,7 +2297,7 @@
         <v>0000</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>28</v>
       </c>
@@ -2306,7 +2314,7 @@
         <v>0000</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>28</v>
       </c>
@@ -2323,7 +2331,7 @@
         <v>0000</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>28</v>
       </c>
@@ -2340,7 +2348,7 @@
         <v>0000</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>28</v>
       </c>
@@ -2357,7 +2365,7 @@
         <v>0000</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F75" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2371,7 +2379,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F76" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2385,7 +2393,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F77" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2399,7 +2407,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F78" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2413,7 +2421,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F79" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2427,7 +2435,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F80" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2441,7 +2449,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="81" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F81" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2455,7 +2463,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="82" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F82" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2469,7 +2477,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="83" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F83" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2483,7 +2491,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="84" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2497,7 +2505,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="85" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F85" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2511,7 +2519,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="86" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F86" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2525,7 +2533,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="87" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F87" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2539,7 +2547,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="88" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F88" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2553,7 +2561,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="89" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F89" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2567,7 +2575,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="90" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F90" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2581,7 +2589,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="91" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F91" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2595,7 +2603,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="92" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F92" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2609,7 +2617,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="93" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F93" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2623,7 +2631,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="94" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F94" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2637,7 +2645,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="95" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F95" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2651,7 +2659,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="96" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F96" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2665,7 +2673,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="97" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F97" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2679,7 +2687,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="98" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F98" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2693,7 +2701,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="99" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F99" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2707,7 +2715,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="100" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F100" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2721,7 +2729,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="101" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F101" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2735,7 +2743,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="102" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F102" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2749,7 +2757,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="103" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F103" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2763,7 +2771,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="104" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F104" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2777,7 +2785,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="105" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F105" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2791,7 +2799,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="106" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F106" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2805,7 +2813,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="107" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F107" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2819,7 +2827,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="108" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F108" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2833,7 +2841,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="109" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F109" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2847,7 +2855,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="110" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F110" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2861,7 +2869,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="111" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F111" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2875,7 +2883,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="112" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F112" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2889,7 +2897,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="113" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F113" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2903,7 +2911,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="114" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F114" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2917,7 +2925,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="115" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F115" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2931,7 +2939,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="116" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F116" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2945,7 +2953,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="117" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F117" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2959,7 +2967,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="118" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F118" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2973,7 +2981,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="119" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F119" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2987,7 +2995,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="120" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F120" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -3001,7 +3009,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="121" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F121" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -3015,7 +3023,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="122" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="122" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F122" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -3029,7 +3037,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="123" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="123" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F123" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -3043,7 +3051,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="124" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F124" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -3057,7 +3065,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="125" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F125" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -3071,7 +3079,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="126" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="126" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F126" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -3085,7 +3093,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="127" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="127" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F127" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -3099,7 +3107,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="128" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="128" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F128" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -3113,7 +3121,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="129" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="129" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F129" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -3127,7 +3135,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="130" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="130" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F130" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -3141,7 +3149,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="131" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="131" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F131" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -3155,7 +3163,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="132" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="132" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F132" t="e">
         <f t="shared" ref="F132:F141" si="6">_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(A132,"NL-HaNA_"),"_")</f>
         <v>#N/A</v>
@@ -3169,7 +3177,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="133" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="133" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F133" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
@@ -3183,7 +3191,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="134" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="134" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F134" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
@@ -3197,7 +3205,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="135" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="135" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F135" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
@@ -3211,7 +3219,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="136" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="136" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F136" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
@@ -3225,7 +3233,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="137" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="137" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F137" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
@@ -3239,7 +3247,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="138" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="138" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F138" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
@@ -3253,7 +3261,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="139" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="139" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F139" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
@@ -3267,7 +3275,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="140" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="140" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F140" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
@@ -3281,7 +3289,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="141" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="141" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F141" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
